--- a/TSQL_Andy.xlsx
+++ b/TSQL_Andy.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Downloads\TSQL Abfrage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3CC3B-F8E5-4084-B5C3-206CEFD7E401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507FEA29-9065-4F5E-B935-FA733E0C9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1791D8FC-5BC6-4235-B776-10FED31BC343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1791D8FC-5BC6-4235-B776-10FED31BC343}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalform" sheetId="1" r:id="rId1"/>
     <sheet name="WITH CHECK" sheetId="3" r:id="rId2"/>
     <sheet name="SELECT" sheetId="2" r:id="rId3"/>
+    <sheet name="TOP" sheetId="4" r:id="rId4"/>
+    <sheet name="JOIN" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>RELATION</t>
   </si>
@@ -315,6 +317,75 @@
   </si>
   <si>
     <t>WITH CHECK</t>
+  </si>
+  <si>
+    <t>Spalten</t>
+  </si>
+  <si>
+    <t>Tabellen</t>
+  </si>
+  <si>
+    <t>Gruppierung</t>
+  </si>
+  <si>
+    <t>Datensätze</t>
+  </si>
+  <si>
+    <t>Agg-FILTER</t>
+  </si>
+  <si>
+    <t>AggregationsFunktion</t>
+  </si>
+  <si>
+    <t>SUM / AVG / MAX / …</t>
+  </si>
+  <si>
+    <t>Mini-SELECT</t>
+  </si>
+  <si>
+    <t>1:1 RAM</t>
+  </si>
+  <si>
+    <t>TOP 3</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>Sortieren</t>
+  </si>
+  <si>
+    <t>Begrenzen</t>
+  </si>
+  <si>
+    <t>tempDB</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>CD.ID2</t>
+  </si>
+  <si>
+    <t>WITH TIES</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>THEORIE</t>
+  </si>
+  <si>
+    <t>PRAXIS</t>
+  </si>
+  <si>
+    <t>Guter Stil</t>
   </si>
 </sst>
 </file>
@@ -379,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +515,25 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -490,8 +578,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,8 +682,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
@@ -532,17 +714,41 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="20 % - Akzent5" xfId="9" builtinId="46"/>
+    <cellStyle name="60 % - Akzent5" xfId="11" builtinId="48"/>
     <cellStyle name="Akzent1" xfId="3" builtinId="29"/>
     <cellStyle name="Akzent2" xfId="4" builtinId="33"/>
     <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
@@ -552,8 +758,262 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Zelle überprüfen" xfId="10" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{38DB30C0-011F-4691-9EDD-F05A699EAF70}"/>
   </tableStyles>
@@ -620,6 +1080,23 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3034710E-13D9-4FE1-BFA3-966578BBD78D}" name="Interpret.ID"/>
     <tableColumn id="2" xr3:uid="{B9E82016-3785-448C-BCF3-EEBC39D61F3F}" name="InterpretName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{033B8C1C-2E82-429A-9892-C17CC95AF0B1}" name="Tabelle6" displayName="Tabelle6" ref="I27:P30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="I27:P30" xr:uid="{033B8C1C-2E82-429A-9892-C17CC95AF0B1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A789252F-08C3-4270-A51D-63B24E68C22C}" name="CD.ID" dataDxfId="5" dataCellStyle="Akzent4"/>
+    <tableColumn id="2" xr3:uid="{3B10E04B-ADF8-412F-AE35-4854A17DAEF6}" name="Track"/>
+    <tableColumn id="3" xr3:uid="{018FA0DE-2B6D-4F30-99EE-C64D3F9EDA33}" name="TrackNo"/>
+    <tableColumn id="4" xr3:uid="{221C901A-124C-48FA-A354-A194C3E3D2A0}" name="CD.ID2" dataDxfId="4" dataCellStyle="Akzent4"/>
+    <tableColumn id="5" xr3:uid="{8411B776-5B41-4C05-B6DD-933BBA845C16}" name="CD-Titel" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{170A2542-7857-45AC-9A79-082970267A12}" name="Interpret" dataDxfId="2" dataCellStyle="Akzent6"/>
+    <tableColumn id="7" xr3:uid="{37A65DC9-EF83-427A-9C83-1E20284C7F05}" name="Interpret.ID" dataDxfId="1" dataCellStyle="Akzent6"/>
+    <tableColumn id="8" xr3:uid="{0AC5CBA5-F9DC-4836-9D34-410B98250EF6}" name="InterpretName" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3B66B-B0BC-496D-AA13-4ADF1ABA45E5}">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="F18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,6 +1415,8 @@
     <col min="12" max="12" width="13.109375" customWidth="1"/>
     <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -1282,28 +1761,28 @@
         <v>42</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="L27" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1321,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="I28" s="15">
+      <c r="I28" s="28">
         <v>4711</v>
       </c>
       <c r="J28" s="7" t="s">
@@ -1342,7 +1821,7 @@
       <c r="O28" s="19">
         <v>42</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1351,7 +1830,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="15">
+      <c r="I29" s="28">
         <v>4711</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -1372,34 +1851,34 @@
       <c r="O29" s="19">
         <v>42</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G30" s="2"/>
-      <c r="I30" s="15">
+      <c r="I30" s="32">
         <v>4711</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="34">
         <v>3</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="35">
         <v>4711</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="36">
         <v>42</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="37">
         <v>42</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1464,7 +1943,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>43</v>
       </c>
       <c r="C35" t="s">
@@ -1500,10 +1979,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="38"/>
       <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
@@ -1608,11 +2087,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1669,7 +2149,7 @@
       <c r="G7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <v>4</v>
       </c>
     </row>
@@ -1690,7 +2170,7 @@
       <c r="B10" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>4</v>
       </c>
     </row>
@@ -1701,14 +2181,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7567A1-FD80-48B1-A62B-B07C1E18D8A4}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1718,7 +2199,7 @@
     <col min="8" max="8" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>70</v>
       </c>
@@ -1726,7 +2207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>72</v>
       </c>
@@ -1734,7 +2215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>74</v>
       </c>
@@ -1742,7 +2223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
@@ -1755,85 +2236,459 @@
       <c r="E5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="39"/>
+      <c r="E8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B11" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B12" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B13" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B14" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B15" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B16" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B17" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="H18" s="24" t="s">
+      <c r="F18" s="38"/>
+      <c r="H18" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="23"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="23"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02BD2A-1CED-453B-895B-234698C3DA5A}">
+  <dimension ref="B9:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="25">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="25">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="25">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132FF46F-63B1-4784-B0B8-1BD269C3C0C0}">
+  <dimension ref="B3:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="H4" s="45">
+        <v>1</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="46">
+        <v>3</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="45">
+        <v>3</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43">
+        <v>3</v>
+      </c>
+      <c r="E6" s="44">
+        <v>5</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="H6" s="45">
+        <v>4</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43">
+        <v>4</v>
+      </c>
+      <c r="E7" s="44">
+        <v>7</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43">
+        <v>5</v>
+      </c>
+      <c r="E8" s="44">
+        <v>6</v>
+      </c>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43">
+        <v>6</v>
+      </c>
+      <c r="E9" s="44">
+        <v>4</v>
+      </c>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43">
+        <v>7</v>
+      </c>
+      <c r="E10" s="44">
+        <v>2</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="H10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E11" s="46">
+        <v>3</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E12" s="44">
+        <v>5</v>
+      </c>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E14" s="44">
+        <v>4</v>
+      </c>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E15" s="44">
+        <v>2</v>
+      </c>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E16" s="44">
+        <v>6</v>
+      </c>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E17" s="44">
+        <v>7</v>
+      </c>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TSQL_Andy.xlsx
+++ b/TSQL_Andy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Downloads\TSQL Abfrage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507FEA29-9065-4F5E-B935-FA733E0C9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B351A-8BE6-44A8-89B5-D3AA12BF4FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1791D8FC-5BC6-4235-B776-10FED31BC343}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
   <si>
     <t>RELATION</t>
   </si>
@@ -386,6 +386,111 @@
   </si>
   <si>
     <t>Guter Stil</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOIN </t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>(FULL)</t>
+  </si>
+  <si>
+    <t>(INNER)</t>
+  </si>
+  <si>
+    <t>FULL JOIN</t>
+  </si>
+  <si>
+    <t>WITH INDEX</t>
+  </si>
+  <si>
+    <t>(OUTER)</t>
+  </si>
+  <si>
+    <t>A.ID</t>
+  </si>
+  <si>
+    <t>B.ID</t>
+  </si>
+  <si>
+    <t>WHERE A.ID IS NULL</t>
+  </si>
+  <si>
+    <t>WHERE B.ID IS NULL</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt; sortieren</t>
+  </si>
+  <si>
+    <t>&gt; verschieben</t>
+  </si>
+  <si>
+    <t>&gt; kopieren</t>
+  </si>
+  <si>
+    <t>&gt; filtern</t>
+  </si>
+  <si>
+    <t>das ist absurd aufwendig!!</t>
+  </si>
+  <si>
+    <t>FULL LEFT</t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>OUTER JOIN</t>
+  </si>
+  <si>
+    <t>JOIN + WHERE B.ID IS NULL</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>falls in B NULL</t>
+  </si>
+  <si>
+    <t>falls in A NULL</t>
+  </si>
+  <si>
+    <t>WHERE IN</t>
+  </si>
+  <si>
+    <t>LEFT JOIN + WHERE B.ID IS NULL</t>
+  </si>
+  <si>
+    <t>WHERE NOT IN</t>
+  </si>
+  <si>
+    <t>falls Array KLEIN ist,</t>
+  </si>
+  <si>
+    <t>auf das getestet wird</t>
   </si>
 </sst>
 </file>
@@ -450,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +635,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,7 +781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -684,8 +794,9 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
@@ -730,6 +841,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,20 +856,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="20 % - Akzent5" xfId="9" builtinId="46"/>
     <cellStyle name="60 % - Akzent5" xfId="11" builtinId="48"/>
     <cellStyle name="Akzent1" xfId="3" builtinId="29"/>
     <cellStyle name="Akzent2" xfId="4" builtinId="33"/>
     <cellStyle name="Akzent3" xfId="5" builtinId="37"/>
     <cellStyle name="Akzent4" xfId="6" builtinId="41"/>
+    <cellStyle name="Akzent5" xfId="12" builtinId="45"/>
     <cellStyle name="Akzent6" xfId="7" builtinId="49"/>
     <cellStyle name="Gut" xfId="8" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1401,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3B66B-B0BC-496D-AA13-4ADF1ABA45E5}">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="F18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="H15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,10 +2096,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="44"/>
       <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
@@ -2184,7 +2301,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,14 +2359,14 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="45"/>
+      <c r="E8" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
@@ -2258,10 +2375,10 @@
       <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2353,14 +2470,14 @@
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="H18" s="38" t="s">
+      <c r="F18" s="44"/>
+      <c r="H18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
@@ -2481,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132FF46F-63B1-4784-B0B8-1BD269C3C0C0}">
-  <dimension ref="B3:Q27"/>
+  <dimension ref="B3:T141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,13 +2612,14 @@
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>111</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -2509,112 +2627,112 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="H4" s="45">
+      <c r="F4" s="41"/>
+      <c r="H4" s="42">
         <v>1</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40">
         <v>2</v>
       </c>
-      <c r="E5" s="46">
-        <v>3</v>
-      </c>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="43">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="45">
-        <v>3</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
+      <c r="H5" s="42">
+        <v>3</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43">
-        <v>3</v>
-      </c>
-      <c r="E6" s="44">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>3</v>
+      </c>
+      <c r="E6" s="41">
         <v>5</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="H6" s="45">
+      <c r="F6" s="41"/>
+      <c r="H6" s="42">
         <v>4</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43">
+      <c r="B7" s="39"/>
+      <c r="C7" s="40">
         <v>4</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="41">
         <v>7</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40">
         <v>5</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="41">
         <v>6</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40">
         <v>6</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <v>4</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40">
         <v>7</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="41">
         <v>2</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="41"/>
       <c r="H10" s="18" t="s">
         <v>113</v>
       </c>
@@ -2626,50 +2744,117 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E11" s="46">
-        <v>3</v>
-      </c>
-      <c r="F11" s="46" t="s">
+      <c r="E11" s="43">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>31</v>
       </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <v>5</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="41"/>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E13" s="44">
+      <c r="E13" s="41">
         <v>1</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="41"/>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E14" s="44">
+      <c r="E14" s="41">
         <v>4</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="41"/>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>2</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E16" s="44">
+      <c r="E16" s="41">
         <v>6</v>
       </c>
-      <c r="F16" s="44"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E17" s="44">
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E17" s="41">
         <v>7</v>
       </c>
-      <c r="F17" s="44"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F17" s="41"/>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="48"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="48"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2687,7 +2872,1543 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" t="s">
+        <v>121</v>
+      </c>
+      <c r="S31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q32" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="R32" t="s">
+        <v>118</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q33" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="P34" s="27"/>
+    </row>
+    <row r="35" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="39"/>
+      <c r="D35" s="40">
+        <v>1</v>
+      </c>
+      <c r="E35" s="41">
+        <v>1</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="J35" s="41">
+        <v>1</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="41">
+        <v>1</v>
+      </c>
+      <c r="R35" s="41"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C36" s="39"/>
+      <c r="D36" s="40">
+        <v>1</v>
+      </c>
+      <c r="E36" s="41">
+        <v>1</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="J36" s="41">
+        <v>3</v>
+      </c>
+      <c r="K36" s="41"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="41">
+        <v>1</v>
+      </c>
+      <c r="R36" s="41"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C37" s="39"/>
+      <c r="D37" s="40">
+        <v>2</v>
+      </c>
+      <c r="E37" s="41">
+        <v>2</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="J37" s="41">
+        <v>5</v>
+      </c>
+      <c r="K37" s="41"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="40">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="41">
+        <v>2</v>
+      </c>
+      <c r="R37" s="41"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C38" s="39"/>
+      <c r="D38" s="40">
+        <v>2</v>
+      </c>
+      <c r="E38" s="41">
+        <v>2</v>
+      </c>
+      <c r="F38" s="41"/>
+      <c r="J38" s="41">
+        <v>7</v>
+      </c>
+      <c r="K38" s="41"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="41">
+        <v>2</v>
+      </c>
+      <c r="R38" s="41"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C39" s="39"/>
+      <c r="D39" s="40">
+        <v>3</v>
+      </c>
+      <c r="E39" s="41">
+        <v>3</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="J39" s="41">
+        <v>6</v>
+      </c>
+      <c r="K39" s="41"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="40">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="41">
+        <v>3</v>
+      </c>
+      <c r="R39" s="41"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C40" s="39"/>
+      <c r="D40" s="40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="41">
+        <v>3</v>
+      </c>
+      <c r="F40" s="41"/>
+      <c r="J40" s="41">
+        <v>4</v>
+      </c>
+      <c r="K40" s="41"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="41">
+        <v>3</v>
+      </c>
+      <c r="R40" s="41"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C41" s="39"/>
+      <c r="D41" s="40">
+        <v>4</v>
+      </c>
+      <c r="E41" s="41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="J41" s="41">
+        <v>2</v>
+      </c>
+      <c r="K41" s="41"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="41">
+        <v>4</v>
+      </c>
+      <c r="R41" s="41"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C42" s="39"/>
+      <c r="D42" s="40">
+        <v>4</v>
+      </c>
+      <c r="E42" s="41">
+        <v>4</v>
+      </c>
+      <c r="F42" s="41"/>
+      <c r="J42" s="41">
+        <v>3</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="41">
+        <v>4</v>
+      </c>
+      <c r="R42" s="41"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C43" s="39"/>
+      <c r="D43" s="40">
+        <v>5</v>
+      </c>
+      <c r="E43" s="41">
+        <v>5</v>
+      </c>
+      <c r="F43" s="41"/>
+      <c r="J43" s="41">
+        <v>5</v>
+      </c>
+      <c r="K43" s="41"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="40">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="41">
+        <v>5</v>
+      </c>
+      <c r="R43" s="41"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C44" s="39"/>
+      <c r="D44" s="40">
+        <v>5</v>
+      </c>
+      <c r="E44" s="41">
+        <v>5</v>
+      </c>
+      <c r="F44" s="41"/>
+      <c r="J44" s="41">
+        <v>1</v>
+      </c>
+      <c r="K44" s="41"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="41">
+        <v>5</v>
+      </c>
+      <c r="R44" s="41"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C45" s="39"/>
+      <c r="D45" s="40">
+        <v>6</v>
+      </c>
+      <c r="E45" s="41">
+        <v>6</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="J45" s="41">
+        <v>4</v>
+      </c>
+      <c r="K45" s="41"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="41">
+        <v>6</v>
+      </c>
+      <c r="R45" s="41"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C46" s="39"/>
+      <c r="D46" s="40">
+        <v>6</v>
+      </c>
+      <c r="E46" s="41">
+        <v>6</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="J46" s="41">
+        <v>2</v>
+      </c>
+      <c r="K46" s="41"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="41">
+        <v>6</v>
+      </c>
+      <c r="R46" s="41"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C47" s="39"/>
+      <c r="D47" s="40">
+        <v>7</v>
+      </c>
+      <c r="E47" s="41">
+        <v>7</v>
+      </c>
+      <c r="F47" s="41"/>
+      <c r="J47" s="41">
+        <v>6</v>
+      </c>
+      <c r="K47" s="41"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="40">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="41">
+        <v>7</v>
+      </c>
+      <c r="R47" s="41"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C48" s="39"/>
+      <c r="D48" s="40">
+        <v>7</v>
+      </c>
+      <c r="E48" s="41">
+        <v>7</v>
+      </c>
+      <c r="F48" s="41"/>
+      <c r="J48" s="41">
+        <v>7</v>
+      </c>
+      <c r="K48" s="41"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="41">
+        <v>7</v>
+      </c>
+      <c r="R48" s="41"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" t="s">
+        <v>116</v>
+      </c>
+      <c r="O53" t="s">
+        <v>124</v>
+      </c>
+      <c r="P53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O54" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="27"/>
+    </row>
+    <row r="57" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="41">
+        <v>1</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40">
+        <v>1</v>
+      </c>
+      <c r="I57" s="41">
+        <v>1</v>
+      </c>
+      <c r="J57" s="41"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="41">
+        <v>5</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40">
+        <v>5</v>
+      </c>
+      <c r="I58" s="41">
+        <v>1</v>
+      </c>
+      <c r="J58" s="41"/>
+      <c r="N58" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="41"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C59" s="41">
+        <v>7</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40">
+        <v>7</v>
+      </c>
+      <c r="I59" s="41">
+        <v>2</v>
+      </c>
+      <c r="J59" s="41"/>
+      <c r="N59" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="41"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C60" s="41">
+        <v>6</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40">
+        <v>6</v>
+      </c>
+      <c r="I60" s="41">
+        <v>2</v>
+      </c>
+      <c r="J60" s="41"/>
+      <c r="N60" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C61" s="41">
+        <v>4</v>
+      </c>
+      <c r="D61" s="41"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40">
+        <v>4</v>
+      </c>
+      <c r="I61" s="41">
+        <v>3</v>
+      </c>
+      <c r="J61" s="41"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C62" s="41">
+        <v>2</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40">
+        <v>2</v>
+      </c>
+      <c r="I62" s="41">
+        <v>3</v>
+      </c>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C63" s="41">
+        <v>5</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40">
+        <v>5</v>
+      </c>
+      <c r="I63" s="41">
+        <v>4</v>
+      </c>
+      <c r="J63" s="41"/>
+      <c r="O63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C64" s="41">
+        <v>1</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40">
+        <v>1</v>
+      </c>
+      <c r="I64" s="41">
+        <v>4</v>
+      </c>
+      <c r="J64" s="41"/>
+      <c r="N64" t="s">
+        <v>116</v>
+      </c>
+      <c r="O64" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C65" s="41">
+        <v>4</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40">
+        <v>4</v>
+      </c>
+      <c r="I65" s="41">
+        <v>5</v>
+      </c>
+      <c r="J65" s="41"/>
+      <c r="N65" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O65" t="s">
+        <v>119</v>
+      </c>
+      <c r="P65" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C66" s="41">
+        <v>2</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40">
+        <v>2</v>
+      </c>
+      <c r="I66" s="41">
+        <v>5</v>
+      </c>
+      <c r="J66" s="41"/>
+      <c r="N66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="41">
+        <v>6</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40">
+        <v>6</v>
+      </c>
+      <c r="I67" s="41">
+        <v>6</v>
+      </c>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="41">
+        <v>7</v>
+      </c>
+      <c r="D68" s="41"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40">
+        <v>7</v>
+      </c>
+      <c r="I68" s="41">
+        <v>6</v>
+      </c>
+      <c r="J68" s="41"/>
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="41">
+        <v>7</v>
+      </c>
+      <c r="J69" s="41"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="43">
+        <v>3</v>
+      </c>
+      <c r="P69" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q69" s="41"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I70" s="41">
+        <v>7</v>
+      </c>
+      <c r="J70" s="41"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="43">
+        <v>3</v>
+      </c>
+      <c r="P70" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="41"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O71" t="s">
+        <v>125</v>
+      </c>
+      <c r="P71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>116</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H75" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>118</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="27"/>
+      <c r="I77" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="41">
+        <v>1</v>
+      </c>
+      <c r="I78" s="41"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+      <c r="C79" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="H79" s="41">
+        <v>1</v>
+      </c>
+      <c r="I79" s="41"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
+      <c r="C80" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="H80" s="41">
+        <v>2</v>
+      </c>
+      <c r="I80" s="41"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+      <c r="C81" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="H81" s="41">
+        <v>2</v>
+      </c>
+      <c r="I81" s="41"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
+      <c r="C82" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+      <c r="C83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J84" s="39"/>
+      <c r="K84" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J85" s="39"/>
+      <c r="K85" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J86" s="39"/>
+      <c r="K86" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J87" s="39"/>
+      <c r="K87" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E94" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D96" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="3:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="27"/>
+    </row>
+    <row r="99" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="41">
+        <v>1</v>
+      </c>
+      <c r="E99" s="41"/>
+      <c r="F99" s="42">
+        <v>1</v>
+      </c>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D100" s="41">
+        <v>3</v>
+      </c>
+      <c r="E100" s="41"/>
+      <c r="F100" s="42">
+        <v>3</v>
+      </c>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D101" s="41">
+        <v>5</v>
+      </c>
+      <c r="E101" s="41"/>
+      <c r="F101" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="47"/>
+      <c r="M101" s="47"/>
+      <c r="N101" s="47"/>
+      <c r="O101" s="47"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D102" s="41">
+        <v>7</v>
+      </c>
+      <c r="E102" s="41"/>
+      <c r="F102" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="47"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+    </row>
+    <row r="103" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D103" s="41">
+        <v>6</v>
+      </c>
+      <c r="E103" s="41"/>
+      <c r="F103" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="47"/>
+      <c r="K103" s="47"/>
+      <c r="L103" s="47"/>
+      <c r="M103" s="47"/>
+      <c r="N103" s="47"/>
+      <c r="O103" s="47"/>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D104" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="41"/>
+      <c r="F104" s="42">
+        <v>4</v>
+      </c>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+    </row>
+    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D105" s="41">
+        <v>2</v>
+      </c>
+      <c r="E105" s="41"/>
+      <c r="F105" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="47"/>
+      <c r="M105" s="47"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D106" s="41">
+        <v>3</v>
+      </c>
+      <c r="E106" s="41"/>
+      <c r="F106" s="42">
+        <v>3</v>
+      </c>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+    </row>
+    <row r="107" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D107" s="41">
+        <v>5</v>
+      </c>
+      <c r="E107" s="41"/>
+      <c r="F107" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="47"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="47"/>
+    </row>
+    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D108" s="41">
+        <v>1</v>
+      </c>
+      <c r="E108" s="41"/>
+      <c r="F108" s="42">
+        <v>1</v>
+      </c>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+    </row>
+    <row r="109" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D109" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="41"/>
+      <c r="F109" s="42">
+        <v>4</v>
+      </c>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+    </row>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D110" s="41">
+        <v>2</v>
+      </c>
+      <c r="E110" s="41"/>
+      <c r="F110" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="47"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="47"/>
+    </row>
+    <row r="111" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D111" s="41">
+        <v>6</v>
+      </c>
+      <c r="E111" s="41"/>
+      <c r="F111" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="47"/>
+    </row>
+    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D112" s="41">
+        <v>7</v>
+      </c>
+      <c r="E112" s="41"/>
+      <c r="F112" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D117" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="3:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C119" s="27"/>
+    </row>
+    <row r="120" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="41">
+        <v>1</v>
+      </c>
+      <c r="E120" s="41"/>
+      <c r="F120" s="42">
+        <v>1</v>
+      </c>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="42"/>
+      <c r="O120" s="42"/>
+    </row>
+    <row r="121" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D121" s="41">
+        <v>3</v>
+      </c>
+      <c r="E121" s="41"/>
+      <c r="F121" s="42">
+        <v>3</v>
+      </c>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="42"/>
+      <c r="O121" s="42"/>
+    </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D122" s="41">
+        <v>4</v>
+      </c>
+      <c r="E122" s="41"/>
+      <c r="F122" s="42">
+        <v>4</v>
+      </c>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="O122" s="42"/>
+    </row>
+    <row r="123" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D123" s="41">
+        <v>3</v>
+      </c>
+      <c r="E123" s="41"/>
+      <c r="F123" s="42">
+        <v>3</v>
+      </c>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="42"/>
+      <c r="O123" s="42"/>
+    </row>
+    <row r="124" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D124" s="41">
+        <v>1</v>
+      </c>
+      <c r="E124" s="41"/>
+      <c r="F124" s="42">
+        <v>1</v>
+      </c>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42"/>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D125" s="41">
+        <v>4</v>
+      </c>
+      <c r="E125" s="41"/>
+      <c r="F125" s="42">
+        <v>4</v>
+      </c>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="42"/>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E127" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" t="s">
+        <v>124</v>
+      </c>
+      <c r="F129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D130" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" t="s">
+        <v>119</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="3:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C132" s="27"/>
+    </row>
+    <row r="133" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="41">
+        <v>5</v>
+      </c>
+      <c r="E133" s="41"/>
+      <c r="F133" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47"/>
+      <c r="L133" s="47"/>
+      <c r="M133" s="47"/>
+      <c r="N133" s="47"/>
+      <c r="O133" s="47"/>
+    </row>
+    <row r="134" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D134" s="41">
+        <v>7</v>
+      </c>
+      <c r="E134" s="41"/>
+      <c r="F134" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+      <c r="L134" s="47"/>
+      <c r="M134" s="47"/>
+      <c r="N134" s="47"/>
+      <c r="O134" s="47"/>
+    </row>
+    <row r="135" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D135" s="41">
+        <v>6</v>
+      </c>
+      <c r="E135" s="41"/>
+      <c r="F135" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+    </row>
+    <row r="136" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D136" s="41">
+        <v>2</v>
+      </c>
+      <c r="E136" s="41"/>
+      <c r="F136" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+    </row>
+    <row r="137" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D137" s="41">
+        <v>5</v>
+      </c>
+      <c r="E137" s="41"/>
+      <c r="F137" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="47"/>
+      <c r="L137" s="47"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+    </row>
+    <row r="138" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D138" s="41">
+        <v>2</v>
+      </c>
+      <c r="E138" s="41"/>
+      <c r="F138" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="47"/>
+      <c r="K138" s="47"/>
+      <c r="L138" s="47"/>
+      <c r="M138" s="47"/>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+    </row>
+    <row r="139" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D139" s="41">
+        <v>6</v>
+      </c>
+      <c r="E139" s="41"/>
+      <c r="F139" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="47"/>
+      <c r="K139" s="47"/>
+      <c r="L139" s="47"/>
+      <c r="M139" s="47"/>
+      <c r="N139" s="47"/>
+      <c r="O139" s="47"/>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D140" s="41">
+        <v>7</v>
+      </c>
+      <c r="E140" s="41"/>
+      <c r="F140" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="47"/>
+      <c r="K140" s="47"/>
+      <c r="L140" s="47"/>
+      <c r="M140" s="47"/>
+      <c r="N140" s="47"/>
+      <c r="O140" s="47"/>
+    </row>
+    <row r="141" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D141" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="41"/>
+      <c r="F141" s="42">
+        <v>4</v>
+      </c>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="42"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I58:J70">
+    <sortCondition ref="I57:I70"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
